--- a/LSDemandTest.xlsx
+++ b/LSDemandTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alec-\Documents\GitHub\Airline-Planning-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b49d4b5a6fd0de9f/Documents/GitHub/Airline-Planning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27AD52A-A01E-484B-BCF4-A40D87863121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D27AD52A-A01E-484B-BCF4-A40D87863121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB4A2FA3-D9FE-4735-948A-94717A0C9D56}"/>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="8415" windowWidth="11895" windowHeight="11265" xr2:uid="{51FF3718-0368-4593-85D0-69DC5EB2A5C9}"/>
+    <workbookView xWindow="6255" yWindow="1935" windowWidth="21315" windowHeight="11265" xr2:uid="{51FF3718-0368-4593-85D0-69DC5EB2A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099F9FCA-02D8-46A3-BE81-DFC9DC0C7614}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,51 +426,76 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-5.5823297587036498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-5.9098890783503499</v>
+      </c>
+      <c r="D1">
+        <v>-5.9098890783503499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2281970</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <f>2281970*1.12^10</f>
+        <v>7087452.4359952398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6282927</v>
       </c>
       <c r="C3">
         <f>LN(B2*B3)</f>
         <v>30.293896175618983</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <f>6282927*1.12^10</f>
+        <v>19513817.566107471</v>
+      </c>
+      <c r="E3">
+        <f>LN(D2*D3)</f>
+        <v>32.560469881759047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0.35077016688026502</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.35077016688026502</v>
+      </c>
+      <c r="F4">
+        <f>E3*D4</f>
+        <v>11.421241454124464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>42.39</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>42.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -480,24 +506,41 @@
         <f>LN(B5*B6)</f>
         <v>8.4440235450509942</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>109.63</v>
+      </c>
+      <c r="E6">
+        <f>LN(D5*D6)</f>
+        <v>8.4440235450509942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0.140956078488119</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.140956078488119</v>
+      </c>
+      <c r="F7">
+        <f>E6*D7</f>
+        <v>1.1902364455717327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.43</v>
+      </c>
+      <c r="D8">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -506,21 +549,39 @@
       </c>
       <c r="C9">
         <f>LN(B9*B8)</f>
-        <v>7.3904962020052096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.0956732443824784</v>
+      </c>
+      <c r="D9">
+        <v>310.44253137679999</v>
+      </c>
+      <c r="E9">
+        <f>LN(D9*D8)</f>
+        <v>6.0956732443824784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>-0.25297614451328598</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>-0.25297614451328598</v>
+      </c>
+      <c r="F10">
+        <f>D10*E9</f>
+        <v>-1.5420599155766728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>EXP(B1+B4*C3+B7*C6+B10*C9)</f>
-        <v>78.608706940150995</v>
+        <v>78.608706940150086</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11" si="0">EXP(D1+D4*E3+D7*E6+D10*E9)</f>
+        <v>174.08242705796516</v>
       </c>
     </row>
   </sheetData>
